--- a/github student information.xlsx
+++ b/github student information.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="120">
   <si>
     <t>Student Email</t>
   </si>
@@ -82,9 +82,15 @@
     <t>amalge01@qub.ac.uk</t>
   </si>
   <si>
+    <t>amalge01</t>
+  </si>
+  <si>
     <t>kmcelhinney01@qub.ac.uk</t>
   </si>
   <si>
+    <t>kmce01</t>
+  </si>
+  <si>
     <t>fmcaloon01@qub.ac.uk</t>
   </si>
   <si>
@@ -94,6 +100,9 @@
     <t>knandanwar01@qub.ac.uk</t>
   </si>
   <si>
+    <t>krushangii</t>
+  </si>
+  <si>
     <t>fsandjaja01@qub.ac.uk</t>
   </si>
   <si>
@@ -103,6 +112,9 @@
     <t>nsaulters01@qub.ac.uk</t>
   </si>
   <si>
+    <t>nsault</t>
+  </si>
+  <si>
     <t>kshaw12@qub.ac.uk</t>
   </si>
   <si>
@@ -115,6 +127,9 @@
     <t>ysun31@qub.ac.uk</t>
   </si>
   <si>
+    <t>Ada1123</t>
+  </si>
+  <si>
     <t>hxia03@qub.ac.uk</t>
   </si>
   <si>
@@ -124,6 +139,9 @@
     <t>rxin01@qub.ac.uk</t>
   </si>
   <si>
+    <t>RuoyunXin</t>
+  </si>
+  <si>
     <t>fxiong01@qub.ac.uk</t>
   </si>
   <si>
@@ -175,12 +193,15 @@
     <t>phanna14@qub.ac.uk</t>
   </si>
   <si>
-    <t>PeHanna</t>
+    <t>PeHanna12</t>
   </si>
   <si>
     <t>ehegarty14@qub.ac.uk</t>
   </si>
   <si>
+    <t>ehegar</t>
+  </si>
+  <si>
     <t>ekeenan15@qub.ac.uk</t>
   </si>
   <si>
@@ -190,9 +211,15 @@
     <t>jliang07@qub.ac.uk</t>
   </si>
   <si>
+    <t>JiakuiLiang</t>
+  </si>
+  <si>
     <t>cmaguire99@qub.ac.uk</t>
   </si>
   <si>
+    <t>conanmaguire21</t>
+  </si>
+  <si>
     <t>jmccullough48@qub.ac.uk</t>
   </si>
   <si>
@@ -205,6 +232,9 @@
     <t>tmullan04@qub.ac.uk</t>
   </si>
   <si>
+    <t>Tmullan04</t>
+  </si>
+  <si>
     <t>lmulligan06@qub.ac.uk</t>
   </si>
   <si>
@@ -223,6 +253,9 @@
     <t>nthompson32@qub.ac.uk</t>
   </si>
   <si>
+    <t>NJThompson32</t>
+  </si>
+  <si>
     <t>htiwari01@qub.ac.uk</t>
   </si>
   <si>
@@ -232,28 +265,43 @@
     <t>ezagarina01@qub.ac.uk</t>
   </si>
   <si>
+    <t>Lizaaaaaaaaaaaaa</t>
+  </si>
+  <si>
     <t>ccorr18@qub.ac.uk</t>
   </si>
   <si>
+    <t>CormacCorr</t>
+  </si>
+  <si>
     <t>ncunningham17@qub.ac.uk</t>
   </si>
   <si>
+    <t>ncunningham17</t>
+  </si>
+  <si>
     <t>jdai05@qub.ac.uk</t>
   </si>
   <si>
+    <t>Jiayi112233</t>
+  </si>
+  <si>
     <t>sdogan01@qub.ac.uk</t>
   </si>
   <si>
     <t>egildernew01@qub.ac.uk</t>
   </si>
   <si>
+    <t>Egildernew1</t>
+  </si>
+  <si>
     <t>mgreer09@qub.ac.uk</t>
   </si>
   <si>
     <t>yhao08@qub.ac.uk</t>
   </si>
   <si>
-    <t>haoyadong</t>
+    <t>YadongHao</t>
   </si>
   <si>
     <t>whe06@qub.ac.uk</t>
@@ -280,6 +328,9 @@
     <t>tmccaughey03@qub.ac.uk</t>
   </si>
   <si>
+    <t>tmccaughey03</t>
+  </si>
+  <si>
     <t>lmolloy12@qub.ac.uk</t>
   </si>
   <si>
@@ -292,6 +343,9 @@
     <t>wwang33@qub.ac.uk</t>
   </si>
   <si>
+    <t>Jun3733</t>
+  </si>
+  <si>
     <t>ywang150@qub.ac.uk</t>
   </si>
   <si>
@@ -310,17 +364,20 @@
     <t>cxie01@qub.ac.uk</t>
   </si>
   <si>
+    <t>a849142297</t>
+  </si>
+  <si>
     <t>Quinntu</t>
+  </si>
+  <si>
+    <t>rmeehan03</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="mmmyyyy"/>
-  </numFmts>
-  <fonts count="10">
+  <fonts count="12">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -369,6 +426,12 @@
     <font>
       <sz val="11.0"/>
       <color rgb="FF212121"/>
+      <name val="-apple-system"/>
+    </font>
+    <font/>
+    <font>
+      <sz val="11.0"/>
+      <color theme="1"/>
       <name val="-apple-system"/>
     </font>
   </fonts>
@@ -426,14 +489,14 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -443,9 +506,6 @@
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
@@ -466,7 +526,13 @@
     <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -723,7 +789,7 @@
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="4"/>
@@ -738,7 +804,7 @@
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="4"/>
@@ -792,7 +858,7 @@
       <c r="A8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="6" t="s">
         <v>13</v>
       </c>
       <c r="C8" s="4"/>
@@ -807,7 +873,7 @@
       <c r="A9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="7" t="s">
         <v>15</v>
       </c>
       <c r="C9" s="4"/>
@@ -846,7 +912,7 @@
       <c r="A12" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C12" s="4"/>
@@ -876,6 +942,9 @@
       <c r="A14" s="4" t="s">
         <v>22</v>
       </c>
+      <c r="B14" s="5" t="s">
+        <v>23</v>
+      </c>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
@@ -886,7 +955,10 @@
     </row>
     <row r="15">
       <c r="A15" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>25</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -898,10 +970,10 @@
     </row>
     <row r="16">
       <c r="A16" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -913,7 +985,10 @@
     </row>
     <row r="17">
       <c r="A17" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>29</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
@@ -925,10 +1000,10 @@
     </row>
     <row r="18">
       <c r="A18" s="4" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
@@ -940,7 +1015,10 @@
     </row>
     <row r="19">
       <c r="A19" s="4" t="s">
-        <v>29</v>
+        <v>32</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
@@ -952,10 +1030,10 @@
     </row>
     <row r="20">
       <c r="A20" s="4" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
@@ -964,10 +1042,13 @@
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
+      <c r="J20" s="5">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="4" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
@@ -979,7 +1060,10 @@
     </row>
     <row r="22">
       <c r="A22" s="4" t="s">
-        <v>33</v>
+        <v>37</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>38</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
@@ -991,10 +1075,10 @@
     </row>
     <row r="23">
       <c r="A23" s="4" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
@@ -1006,7 +1090,10 @@
     </row>
     <row r="24">
       <c r="A24" s="4" t="s">
-        <v>36</v>
+        <v>41</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>42</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
@@ -1018,10 +1105,10 @@
     </row>
     <row r="25">
       <c r="A25" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B25" s="10" t="s">
-        <v>38</v>
+        <v>43</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>44</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
@@ -1033,10 +1120,10 @@
     </row>
     <row r="26">
       <c r="A26" s="4" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
@@ -1047,8 +1134,8 @@
       <c r="I26" s="4"/>
     </row>
     <row r="27">
-      <c r="A27" s="11" t="s">
-        <v>41</v>
+      <c r="A27" s="10" t="s">
+        <v>47</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
@@ -1060,10 +1147,10 @@
     </row>
     <row r="28">
       <c r="A28" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B28" s="12" t="s">
-        <v>43</v>
+        <v>48</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>49</v>
       </c>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
@@ -1075,10 +1162,10 @@
     </row>
     <row r="29">
       <c r="A29" s="4" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
@@ -1090,10 +1177,10 @@
     </row>
     <row r="30">
       <c r="A30" s="4" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
@@ -1105,10 +1192,10 @@
     </row>
     <row r="31">
       <c r="A31" s="4" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
@@ -1120,10 +1207,10 @@
     </row>
     <row r="32">
       <c r="A32" s="4" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
@@ -1135,7 +1222,7 @@
     </row>
     <row r="33">
       <c r="A33" s="4" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
@@ -1147,10 +1234,10 @@
     </row>
     <row r="34">
       <c r="A34" s="4" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
@@ -1162,7 +1249,10 @@
     </row>
     <row r="35">
       <c r="A35" s="4" t="s">
-        <v>55</v>
+        <v>61</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>62</v>
       </c>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
@@ -1174,10 +1264,10 @@
     </row>
     <row r="36">
       <c r="A36" s="4" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
@@ -1188,8 +1278,11 @@
       <c r="I36" s="4"/>
     </row>
     <row r="37">
-      <c r="A37" s="11" t="s">
-        <v>58</v>
+      <c r="A37" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>66</v>
       </c>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
@@ -1201,7 +1294,10 @@
     </row>
     <row r="38">
       <c r="A38" s="4" t="s">
-        <v>59</v>
+        <v>67</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>68</v>
       </c>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
@@ -1213,10 +1309,10 @@
     </row>
     <row r="39">
       <c r="A39" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B39" s="7" t="s">
-        <v>61</v>
+        <v>69</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>70</v>
       </c>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
@@ -1228,7 +1324,7 @@
     </row>
     <row r="40">
       <c r="A40" s="4" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
@@ -1240,7 +1336,10 @@
     </row>
     <row r="41">
       <c r="A41" s="4" t="s">
-        <v>63</v>
+        <v>72</v>
+      </c>
+      <c r="B41" s="12" t="s">
+        <v>73</v>
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
@@ -1252,10 +1351,10 @@
     </row>
     <row r="42">
       <c r="A42" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="B42" s="7" t="s">
-        <v>65</v>
+        <v>74</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>75</v>
       </c>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
@@ -1267,7 +1366,7 @@
     </row>
     <row r="43">
       <c r="A43" s="4" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
@@ -1279,10 +1378,10 @@
     </row>
     <row r="44">
       <c r="A44" s="4" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
@@ -1294,7 +1393,10 @@
     </row>
     <row r="45">
       <c r="A45" s="4" t="s">
-        <v>69</v>
+        <v>79</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>80</v>
       </c>
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
@@ -1306,10 +1408,10 @@
     </row>
     <row r="46">
       <c r="A46" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="B46" s="7" t="s">
-        <v>71</v>
+        <v>81</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>82</v>
       </c>
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
@@ -1321,7 +1423,10 @@
     </row>
     <row r="47">
       <c r="A47" s="4" t="s">
-        <v>72</v>
+        <v>83</v>
+      </c>
+      <c r="B47" s="13" t="s">
+        <v>84</v>
       </c>
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
@@ -1333,7 +1438,10 @@
     </row>
     <row r="48">
       <c r="A48" s="4" t="s">
-        <v>73</v>
+        <v>85</v>
+      </c>
+      <c r="B48" s="12" t="s">
+        <v>86</v>
       </c>
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
@@ -1345,7 +1453,10 @@
     </row>
     <row r="49">
       <c r="A49" s="4" t="s">
-        <v>74</v>
+        <v>87</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>88</v>
       </c>
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
@@ -1357,7 +1468,10 @@
     </row>
     <row r="50">
       <c r="A50" s="4" t="s">
-        <v>75</v>
+        <v>89</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>90</v>
       </c>
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
@@ -1369,7 +1483,7 @@
     </row>
     <row r="51">
       <c r="A51" s="4" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="C51" s="4"/>
       <c r="D51" s="4"/>
@@ -1381,7 +1495,10 @@
     </row>
     <row r="52">
       <c r="A52" s="4" t="s">
-        <v>77</v>
+        <v>92</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>93</v>
       </c>
       <c r="C52" s="4"/>
       <c r="D52" s="4"/>
@@ -1393,7 +1510,7 @@
     </row>
     <row r="53">
       <c r="A53" s="4" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="C53" s="4"/>
       <c r="D53" s="4"/>
@@ -1405,10 +1522,10 @@
     </row>
     <row r="54">
       <c r="A54" s="4" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="C54" s="4"/>
       <c r="D54" s="4"/>
@@ -1420,10 +1537,10 @@
     </row>
     <row r="55">
       <c r="A55" s="4" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>
@@ -1435,10 +1552,10 @@
     </row>
     <row r="56">
       <c r="A56" s="4" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="C56" s="4"/>
       <c r="D56" s="4"/>
@@ -1450,7 +1567,7 @@
     </row>
     <row r="57">
       <c r="A57" s="4" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="C57" s="4"/>
       <c r="D57" s="4"/>
@@ -1462,10 +1579,10 @@
     </row>
     <row r="58">
       <c r="A58" s="4" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c r="C58" s="4"/>
       <c r="D58" s="4"/>
@@ -1477,7 +1594,10 @@
     </row>
     <row r="59">
       <c r="A59" s="4" t="s">
-        <v>88</v>
+        <v>104</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>105</v>
       </c>
       <c r="C59" s="4"/>
       <c r="D59" s="4"/>
@@ -1489,10 +1609,10 @@
     </row>
     <row r="60">
       <c r="A60" s="4" t="s">
-        <v>89</v>
+        <v>106</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>90</v>
+        <v>107</v>
       </c>
       <c r="C60" s="4"/>
       <c r="D60" s="4"/>
@@ -1504,7 +1624,7 @@
     </row>
     <row r="61">
       <c r="A61" s="4" t="s">
-        <v>91</v>
+        <v>108</v>
       </c>
       <c r="C61" s="4"/>
       <c r="D61" s="4"/>
@@ -1516,10 +1636,10 @@
     </row>
     <row r="62">
       <c r="A62" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B62" s="13">
-        <v>669643.0</v>
+        <v>109</v>
+      </c>
+      <c r="B62" s="14" t="s">
+        <v>110</v>
       </c>
       <c r="C62" s="4"/>
       <c r="D62" s="4"/>
@@ -1531,10 +1651,10 @@
     </row>
     <row r="63">
       <c r="A63" s="4" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="C63" s="4"/>
       <c r="D63" s="4"/>
@@ -1546,10 +1666,10 @@
     </row>
     <row r="64">
       <c r="A64" s="4" t="s">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>96</v>
+        <v>114</v>
       </c>
       <c r="C64" s="4"/>
       <c r="D64" s="4"/>
@@ -1561,7 +1681,7 @@
     </row>
     <row r="65">
       <c r="A65" s="4" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="C65" s="4"/>
       <c r="D65" s="4"/>
@@ -1573,7 +1693,10 @@
     </row>
     <row r="66">
       <c r="A66" s="4" t="s">
-        <v>98</v>
+        <v>116</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>117</v>
       </c>
       <c r="C66" s="4"/>
       <c r="D66" s="4"/>
@@ -1585,10 +1708,18 @@
     </row>
     <row r="67">
       <c r="A67" s="5" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>99</v>
+        <v>118</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>
